--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,70 +478,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ganesh Krishna</t>
+          <t>Harvey Specter</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ganesh78@uni.com</t>
+          <t>harvey312@uni.com</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Gold</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ganesh Krishna</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ganesh78@uni.com</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Shreyas SGP</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>sgps212@uni.com</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>6</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>6.5</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Roy Kent</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>roy34@uni.com</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,42 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Roy Kent</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>roy34@uni.com</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
